--- a/target/classes/LoginData.xlsx
+++ b/target/classes/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweetasingh\SkillUp-Web-Automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E543820-A45F-4376-9F6F-9C0AD4472782}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079C898-098B-411E-AECB-C51DC0811F76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>UserNames</t>
   </si>
@@ -43,24 +43,6 @@
   </si>
   <si>
     <t>abc1234</t>
-  </si>
-  <si>
-    <t>adminMentor</t>
-  </si>
-  <si>
-    <t>ABC123</t>
-  </si>
-  <si>
-    <t>sangeeta</t>
-  </si>
-  <si>
-    <t>sangeeta123</t>
-  </si>
-  <si>
-    <t>sweetapal</t>
-  </si>
-  <si>
-    <t>sweeta123</t>
   </si>
   <si>
     <t>Valid</t>
@@ -407,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -450,58 +432,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/LoginData.xlsx
+++ b/target/classes/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweetasingh\SkillUp-Web-Automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079C898-098B-411E-AECB-C51DC0811F76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FB8647-8F2D-4859-95FF-895A8F515EE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>UserNames</t>
   </si>
@@ -49,6 +49,27 @@
   </si>
   <si>
     <t>Invalid</t>
+  </si>
+  <si>
+    <t>adminMentor</t>
+  </si>
+  <si>
+    <t>studentAdmin</t>
+  </si>
+  <si>
+    <t>xyz123</t>
+  </si>
+  <si>
+    <t>sangeeta</t>
+  </si>
+  <si>
+    <t>sangeeta123</t>
+  </si>
+  <si>
+    <t>sweetapal</t>
+  </si>
+  <si>
+    <t>sweeta123</t>
   </si>
 </sst>
 </file>
@@ -389,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,6 +456,50 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/target/classes/LoginData.xlsx
+++ b/target/classes/LoginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweetasingh\SkillUp-Web-Automation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweetasingh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FB8647-8F2D-4859-95FF-895A8F515EE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C37A4CA-AE07-4F58-96CD-4A3D8DF1375F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>UserNames</t>
   </si>
@@ -45,31 +45,28 @@
     <t>abc1234</t>
   </si>
   <si>
+    <t>adminMentor</t>
+  </si>
+  <si>
+    <t>ABC123</t>
+  </si>
+  <si>
+    <t>sangeeta</t>
+  </si>
+  <si>
+    <t>sangeeta123</t>
+  </si>
+  <si>
+    <t>sweetapal</t>
+  </si>
+  <si>
+    <t>sweeta123</t>
+  </si>
+  <si>
     <t>Valid</t>
   </si>
   <si>
     <t>Invalid</t>
-  </si>
-  <si>
-    <t>adminMentor</t>
-  </si>
-  <si>
-    <t>studentAdmin</t>
-  </si>
-  <si>
-    <t>xyz123</t>
-  </si>
-  <si>
-    <t>sangeeta</t>
-  </si>
-  <si>
-    <t>sangeeta123</t>
-  </si>
-  <si>
-    <t>sweetapal</t>
-  </si>
-  <si>
-    <t>sweeta123</t>
   </si>
 </sst>
 </file>
@@ -85,21 +82,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -107,29 +98,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,91 +387,90 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
